--- a/config_11.10/game_module_config.xlsx
+++ b/config_11.10/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="882">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3707,6 +3707,22 @@
   </si>
   <si>
     <t>Act_034_LDFDManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_shtx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DSHTXManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4243,13 +4259,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D289" sqref="D289"/>
+      <selection pane="bottomRight" activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11627,6 +11643,32 @@
       </c>
       <c r="I290" s="34" t="s">
         <v>873</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="19">
+        <v>290</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>878</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="D291" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="I291" s="24" t="s">
+        <v>881</v>
       </c>
     </row>
   </sheetData>
